--- a/Floor_2/Right_wing.xlsx
+++ b/Floor_2/Right_wing.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,17 +470,22 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>219</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>220</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>202, 218</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>209, 218</t>
         </is>
       </c>
     </row>
@@ -490,7 +495,7 @@
           <t>1.10</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n"/>
+      <c r="I2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -498,7 +503,7 @@
           <t>2.10</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n"/>
+      <c r="J3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -506,7 +511,7 @@
           <t>3.10</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n"/>
+      <c r="K4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -514,7 +519,7 @@
           <t>4.10</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n"/>
+      <c r="L5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -522,7 +527,7 @@
           <t>5.10</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n"/>
+      <c r="M6" s="1" t="n"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -538,7 +543,7 @@
           <t>7.10</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -546,7 +551,7 @@
           <t>8.10</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n"/>
+      <c r="D9" s="1" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -554,7 +559,7 @@
           <t>9.10</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -562,7 +567,7 @@
           <t>10.10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -570,7 +575,7 @@
           <t>11.10</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n"/>
+      <c r="G12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -578,7 +583,7 @@
           <t>12.10</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n"/>
+      <c r="H13" s="1" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -586,7 +591,7 @@
           <t>13.10</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n"/>
+      <c r="I14" s="1" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -594,7 +599,7 @@
           <t>14.10</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n"/>
+      <c r="J15" s="1" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -602,7 +607,7 @@
           <t>15.10</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n"/>
+      <c r="K16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -610,7 +615,7 @@
           <t>16.10</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n"/>
+      <c r="L17" s="1" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -618,7 +623,7 @@
           <t>17.10</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n"/>
+      <c r="M18" s="1" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -634,7 +639,7 @@
           <t>19.10</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -642,7 +647,7 @@
           <t>20.10</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n"/>
+      <c r="D21" s="1" t="n"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -650,7 +655,7 @@
           <t>21.10</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n"/>
+      <c r="E22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -658,7 +663,7 @@
           <t>22.10</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n"/>
+      <c r="F23" s="1" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -666,7 +671,7 @@
           <t>23.10</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n"/>
+      <c r="G24" s="1" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -674,7 +679,7 @@
           <t>24.10</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n"/>
+      <c r="H25" s="1" t="n"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -682,7 +687,7 @@
           <t>25.10</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n"/>
+      <c r="I26" s="1" t="n"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -690,7 +695,7 @@
           <t>26.10</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n"/>
+      <c r="J27" s="1" t="n"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -698,7 +703,7 @@
           <t>27.10</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n"/>
+      <c r="K28" s="1" t="n"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -706,7 +711,7 @@
           <t>28.10</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n"/>
+      <c r="L29" s="1" t="n"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -714,7 +719,7 @@
           <t>29.10</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n"/>
+      <c r="M30" s="1" t="n"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -730,7 +735,7 @@
           <t>31.10</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
